--- a/数据库设计/流程图.xlsx
+++ b/数据库设计/流程图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379CB2DE-FA8A-410B-8C5F-323C4F87F8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B773FC6-17C9-49E5-9533-42359B9F7C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>审批角色的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,44 +493,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -532,17 +540,17 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -552,17 +560,17 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -573,25 +581,45 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
     </row>
